--- a/data_migration/exports/productbrand.xlsx
+++ b/data_migration/exports/productbrand.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-09-11 23:01:13.489545-04:00</t>
+          <t>2022-09-11 23:01:13.489545</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-09-11 23:01:13.489545-04:00</t>
+          <t>2022-09-11 23:01:13.489545</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -502,12 +502,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-09-11 23:11:46.060753-04:00</t>
+          <t>2022-09-11 23:11:46.060753</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-09-11 23:11:46.060753-04:00</t>
+          <t>2022-09-11 23:11:46.060753</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-09-12 19:46:01.738727-04:00</t>
+          <t>2022-09-12 19:46:01.738727</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-09-12 19:46:01.738727-04:00</t>
+          <t>2022-09-12 19:46:01.738727</t>
         </is>
       </c>
       <c r="E4" t="n">
